--- a/stats/results.xlsx
+++ b/stats/results.xlsx
@@ -458,39 +458,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Rewards</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1000</v>
+          <t>Steps On Failure</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>no failures!</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>no failures!</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>910.55</v>
+        <v>569.3</v>
       </c>
       <c r="E2" t="n">
-        <v>909.27</v>
+        <v>379.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Steps</t>
+          <t>Steps On Success</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.75</v>
+        <v>127.7549019607843</v>
       </c>
       <c r="C3" t="n">
-        <v>126.02</v>
+        <v>126.025</v>
       </c>
       <c r="D3" t="n">
-        <v>306.56</v>
+        <v>277.6</v>
       </c>
       <c r="E3" t="n">
-        <v>286.43</v>
+        <v>276.15</v>
       </c>
     </row>
   </sheetData>

--- a/stats/results.xlsx
+++ b/stats/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>L-1NANE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>L3NAYE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>L0NAYE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>L3NANE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>L-1YANE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>L1NAYE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>L2NANE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>L2NAYE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>L3YANE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>L2YANE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>L2NANE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>L3YANE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>L3NANE</t>
         </is>
       </c>
     </row>
@@ -461,21 +491,39 @@
           <t>Steps On Failure</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>no failures!</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>no failures!</t>
-        </is>
+      <c r="B2" t="n">
+        <v>718.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>234.72</v>
       </c>
       <c r="D2" t="n">
-        <v>569.3</v>
+        <v>72.61</v>
       </c>
       <c r="E2" t="n">
         <v>379.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>870.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>64.81999999999999</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>24</v>
+      </c>
+      <c r="J2" t="n">
+        <v>569.3</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -485,16 +533,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.7549019607843</v>
+        <v>413.66</v>
       </c>
       <c r="C3" t="n">
-        <v>126.025</v>
+        <v>281.85</v>
       </c>
       <c r="D3" t="n">
-        <v>277.6</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>276.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>445.07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="H3" t="n">
+        <v>126.025</v>
+      </c>
+      <c r="I3" t="n">
+        <v>146.18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>277.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>127.7549019607843</v>
       </c>
     </row>
   </sheetData>

--- a/stats/results.xlsx
+++ b/stats/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,130 +436,211 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>L-1NANE</t>
+          <t>Steps On Failure</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>L3NAYE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>L0NAYE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>L3NANE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>L-1YANE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>L1NAYE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>L2NANE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>L2NAYE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L3YANE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>L2YANE</t>
+          <t>Steps On Success</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Steps On Failure</t>
+          <t>L-1NANE</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>718.8</v>
       </c>
       <c r="C2" t="n">
-        <v>234.72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72.61</v>
-      </c>
-      <c r="E2" t="n">
-        <v>379.01</v>
-      </c>
-      <c r="F2" t="n">
-        <v>870.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64.81999999999999</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>24</v>
-      </c>
-      <c r="J2" t="n">
-        <v>569.3</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>413.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Steps On Success</t>
+          <t>L3NAYE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>413.66</v>
+        <v>234.72</v>
       </c>
       <c r="C3" t="n">
         <v>281.85</v>
       </c>
-      <c r="D3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>L0NAYE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="C4" t="n">
         <v>81.98999999999999</v>
       </c>
-      <c r="E3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>L-1NAYE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>381.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>435.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>L1YAYE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>L3NANE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>379.01</v>
+      </c>
+      <c r="C7" t="n">
         <v>276.15</v>
       </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>L-1YANE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>870.4</v>
+      </c>
+      <c r="C8" t="n">
         <v>445.07</v>
       </c>
-      <c r="G3" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>L0YAYE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>177.85</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81.31999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>L1NAYE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>64.81999999999999</v>
+      </c>
+      <c r="C10" t="n">
         <v>60.08</v>
       </c>
-      <c r="H3" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>L2YAYE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>144.23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>L2NANE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>126.025</v>
       </c>
-      <c r="I3" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>L2NAYE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
         <v>146.18</v>
       </c>
-      <c r="J3" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>L3YAYE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>171.32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>280.77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>L3YANE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>569.3</v>
+      </c>
+      <c r="C15" t="n">
         <v>277.6</v>
       </c>
-      <c r="K3" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>L2YANE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>127.7549019607843</v>
       </c>
     </row>

--- a/stats/results.xlsx
+++ b/stats/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,204 +444,246 @@
           <t>Steps On Success</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Success Rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L-1NANE</t>
+          <t>L3YAYE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718.8</v>
+        <v>171.32</v>
       </c>
       <c r="C2" t="n">
-        <v>413.66</v>
+        <v>280.77</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>L3NAYE</t>
+          <t>L3YANE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.72</v>
+        <v>569.3</v>
       </c>
       <c r="C3" t="n">
-        <v>281.85</v>
+        <v>277.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>L0NAYE</t>
+          <t>L3NAYE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.61</v>
+        <v>234.72</v>
       </c>
       <c r="C4" t="n">
-        <v>81.98999999999999</v>
+        <v>281.85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>L-1NAYE</t>
+          <t>L3NANE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.75</v>
+        <v>379.01</v>
       </c>
       <c r="C5" t="n">
-        <v>435.27</v>
+        <v>276.15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>L1YAYE</t>
+          <t>L2YAYE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.99</v>
+        <v>26.21</v>
       </c>
       <c r="C6" t="n">
-        <v>63.76</v>
+        <v>144.23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>L3NANE</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>379.01</v>
-      </c>
+          <t>L2YANE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>276.15</v>
+        <v>127.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>L-1YANE</t>
+          <t>L2NAYE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>870.4</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>445.07</v>
+        <v>146.18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>L0YAYE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>177.85</v>
-      </c>
+          <t>L2NANE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>81.31999999999999</v>
+        <v>126.02</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>L1NAYE</t>
+          <t>L1YAYE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.81999999999999</v>
+        <v>25.99</v>
       </c>
       <c r="C10" t="n">
-        <v>60.08</v>
+        <v>63.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>L2YAYE</t>
+          <t>L1NAYE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.21</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>144.23</v>
+        <v>60.08</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>L2NANE</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>L0YAYE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>177.85</v>
       </c>
       <c r="C12" t="n">
-        <v>126.025</v>
+        <v>81.31999999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>L2NAYE</t>
+          <t>L0NAYE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>72.61</v>
       </c>
       <c r="C13" t="n">
-        <v>146.18</v>
+        <v>81.98999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>L3YAYE</t>
+          <t>L-1YANE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>171.32</v>
+        <v>870.4</v>
       </c>
       <c r="C14" t="n">
-        <v>280.77</v>
+        <v>445.07</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>L3YANE</t>
+          <t>L-1NAYE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>569.3</v>
+        <v>381.75</v>
       </c>
       <c r="C15" t="n">
-        <v>277.6</v>
+        <v>435.27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>L2YANE</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>L-1NANE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>718.8</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7549019607843</v>
+        <v>413.66</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/stats/results.xlsx
+++ b/stats/results.xlsx
@@ -453,111 +453,113 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L3YAYE</t>
+          <t>L-1NANE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171.32</v>
+        <v>718.8</v>
       </c>
       <c r="C2" t="n">
-        <v>280.77</v>
+        <v>413.66</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>L3YANE</t>
+          <t>L-1NAYE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>569.3</v>
+        <v>381.75</v>
       </c>
       <c r="C3" t="n">
-        <v>277.6</v>
+        <v>435.27</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>L3NAYE</t>
+          <t>L-1YANE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.72</v>
+        <v>870.4</v>
       </c>
       <c r="C4" t="n">
-        <v>281.85</v>
+        <v>445.07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>L3NANE</t>
+          <t>L0NAYE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379.01</v>
+        <v>72.61</v>
       </c>
       <c r="C5" t="n">
-        <v>276.15</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>L2YAYE</t>
+          <t>L0YAYE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.21</v>
+        <v>177.85</v>
       </c>
       <c r="C6" t="n">
-        <v>144.23</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>L2YANE</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>L1NAYE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>64.81999999999999</v>
+      </c>
       <c r="C7" t="n">
-        <v>127.75</v>
+        <v>60.08</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>L2NAYE</t>
+          <t>L1YAYE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>25.99</v>
       </c>
       <c r="C8" t="n">
-        <v>146.18</v>
+        <v>63.76</v>
       </c>
       <c r="D8" t="n">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9">
@@ -577,113 +579,111 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>L1YAYE</t>
+          <t>L2NAYE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.99</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>63.76</v>
+        <v>146.18</v>
       </c>
       <c r="D10" t="n">
-        <v>0.64</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>L1NAYE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>64.81999999999999</v>
-      </c>
+          <t>L2YANE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>60.08</v>
+        <v>127.75</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>L0YAYE</t>
+          <t>L2YAYE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177.85</v>
+        <v>26.21</v>
       </c>
       <c r="C12" t="n">
-        <v>81.31999999999999</v>
+        <v>144.23</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>L0NAYE</t>
+          <t>L3NANE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.61</v>
+        <v>379.01</v>
       </c>
       <c r="C13" t="n">
-        <v>81.98999999999999</v>
+        <v>276.15</v>
       </c>
       <c r="D13" t="n">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>L-1YANE</t>
+          <t>L3NAYE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>870.4</v>
+        <v>234.72</v>
       </c>
       <c r="C14" t="n">
-        <v>445.07</v>
+        <v>281.85</v>
       </c>
       <c r="D14" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>L-1NAYE</t>
+          <t>L3YANE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>381.75</v>
+        <v>569.3</v>
       </c>
       <c r="C15" t="n">
-        <v>435.27</v>
+        <v>277.6</v>
       </c>
       <c r="D15" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>L-1NANE</t>
+          <t>L3YAYE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.8</v>
+        <v>171.32</v>
       </c>
       <c r="C16" t="n">
-        <v>413.66</v>
+        <v>280.77</v>
       </c>
       <c r="D16" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/stats/results.xlsx
+++ b/stats/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>718.8</v>
       </c>
       <c r="C2" t="n">
-        <v>413.66</v>
+        <v>413.658</v>
       </c>
       <c r="D2" t="n">
         <v>0.95</v>
@@ -476,7 +476,7 @@
         <v>381.75</v>
       </c>
       <c r="C3" t="n">
-        <v>435.27</v>
+        <v>435.272</v>
       </c>
       <c r="D3" t="n">
         <v>0.92</v>
@@ -495,195 +495,305 @@
         <v>445.07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>L0NAYE</t>
+          <t>L-1YAYE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.61</v>
+        <v>955.2</v>
       </c>
       <c r="C5" t="n">
-        <v>81.98999999999999</v>
+        <v>421.226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>L0YAYE</t>
+          <t>L0NANE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177.85</v>
+        <v>573.222</v>
       </c>
       <c r="C6" t="n">
-        <v>81.31999999999999</v>
+        <v>73.90600000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>L1NAYE</t>
+          <t>L0NAYE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.81999999999999</v>
+        <v>72.60899999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>60.08</v>
+        <v>81.99299999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>L1YAYE</t>
+          <t>L0YANE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.99</v>
+        <v>531.167</v>
       </c>
       <c r="C8" t="n">
-        <v>63.76</v>
+        <v>73.541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>L2NANE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>L0YAYE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>177.852</v>
+      </c>
       <c r="C9" t="n">
-        <v>126.02</v>
+        <v>81.324</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>L2NAYE</t>
+          <t>L1NANE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>146.18</v>
+        <v>53.457</v>
       </c>
       <c r="D10" t="n">
-        <v>0.96</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>L2YANE</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>L1NAYE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.822</v>
+      </c>
       <c r="C11" t="n">
-        <v>127.75</v>
+        <v>60.081</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>L2YAYE</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.21</v>
-      </c>
+          <t>L1YANE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>144.23</v>
+        <v>54.62</v>
       </c>
       <c r="D12" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>L3NANE</t>
+          <t>L1YAYE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.01</v>
+        <v>25.986</v>
       </c>
       <c r="C13" t="n">
-        <v>276.15</v>
+        <v>63.756</v>
       </c>
       <c r="D13" t="n">
-        <v>0.91</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>L3NAYE</t>
+          <t>L2Infinity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>234.72</v>
+        <v>506</v>
       </c>
       <c r="C14" t="n">
-        <v>281.85</v>
+        <v>130.384</v>
       </c>
       <c r="D14" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>L3YANE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>569.3</v>
-      </c>
+          <t>L2NANE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>277.6</v>
+        <v>126.025</v>
       </c>
       <c r="D15" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>L2NAYE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>146.178</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>L2YANE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>127.755</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>L2YAYE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>26.214</v>
+      </c>
+      <c r="C18" t="n">
+        <v>144.227</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>L3Infinity</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>416.818</v>
+      </c>
+      <c r="C19" t="n">
+        <v>305.905</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>L3NANE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>379.005</v>
+      </c>
+      <c r="C20" t="n">
+        <v>276.148</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>L3NAYE</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>234.72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>281.851</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>L3YANE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>569.298</v>
+      </c>
+      <c r="C22" t="n">
+        <v>277.601</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.906</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>L3YAYE</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B23" t="n">
         <v>171.32</v>
       </c>
-      <c r="C16" t="n">
-        <v>280.77</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.88</v>
+      <c r="C23" t="n">
+        <v>280.766</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
